--- a/document/database_batdongsan360.xlsx
+++ b/document/database_batdongsan360.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mydata\University\Nam3Hk2\CongNgheJava\FinalProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15875B21-B72D-439B-80C2-0BCF6365E3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B936533-E488-4CB1-83EC-4A2703781C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="61">
   <si>
     <t>users</t>
   </si>
@@ -123,9 +123,6 @@
     <t>amount</t>
   </si>
   <si>
-    <t>vip</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -187,6 +184,30 @@
   </si>
   <si>
     <t>deletedByUser</t>
+  </si>
+  <si>
+    <t>vips</t>
+  </si>
+  <si>
+    <t>price_per_day</t>
+  </si>
+  <si>
+    <t>vip_id</t>
+  </si>
+  <si>
+    <t>vip_level</t>
+  </si>
+  <si>
+    <t>detailAdress</t>
+  </si>
+  <si>
+    <t>province_id</t>
+  </si>
+  <si>
+    <t>district_id</t>
+  </si>
+  <si>
+    <t>ward_id</t>
   </si>
 </sst>
 </file>
@@ -560,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:M51"/>
+  <dimension ref="A3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -574,12 +595,14 @@
     <col min="4" max="4" width="17.69921875" style="4" customWidth="1"/>
     <col min="5" max="5" width="14.19921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.59765625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.69921875" style="4" customWidth="1"/>
     <col min="9" max="9" width="16.296875" style="4" customWidth="1"/>
     <col min="10" max="10" width="8.796875" style="4"/>
     <col min="11" max="11" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="4"/>
+    <col min="12" max="15" width="8.796875" style="4"/>
+    <col min="16" max="16" width="15.296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.796875" style="4"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -643,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -660,10 +683,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -677,10 +700,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>25</v>
@@ -694,7 +717,7 @@
         <v>22</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>22</v>
@@ -702,16 +725,16 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>27</v>
@@ -725,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -739,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -759,7 +782,7 @@
         <v>52</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -770,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -790,7 +813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
@@ -804,7 +827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G18" s="3" t="s">
         <v>12</v>
       </c>
@@ -812,7 +835,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G19" s="3" t="s">
         <v>13</v>
       </c>
@@ -820,44 +843,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G20" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G21" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>42</v>
+      <c r="G24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="J24" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H25" s="4" t="s">
+      <c r="G25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K25" s="4" t="s">
@@ -866,28 +911,34 @@
       <c r="L25" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="K26" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
@@ -895,13 +946,7 @@
         <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="K27" s="4" t="s">
         <v>24</v>
@@ -912,57 +957,98 @@
       <c r="M27" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F30" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="G32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G33" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G35" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
         <v>1</v>
       </c>
@@ -970,15 +1056,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
         <v>24</v>
       </c>
@@ -986,18 +1072,18 @@
         <v>4</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
@@ -1005,18 +1091,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B46" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B47" s="8"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B48" s="8"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
@@ -1027,7 +1113,7 @@
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/document/database_batdongsan360.xlsx
+++ b/document/database_batdongsan360.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mydata\University\Nam3Hk2\CongNgheJava\FinalProject\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B936533-E488-4CB1-83EC-4A2703781C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB2D1F5-77B9-4884-9C31-5DDF8640E059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,9 +174,6 @@
     <t>PENDING/SUCCESS/FAILED</t>
   </si>
   <si>
-    <t>POST_SUCCESS/POST_VIEWED/POST_APPROVED/POST_REJECTED/TRANSACTION_SUCCESS/TRANSACTION_FAILED/SYSTEM_ALERT</t>
-  </si>
-  <si>
     <t>PENDING/REVIEW_LATER/APPROVED/REJECTED/EXPIRED</t>
   </si>
   <si>
@@ -208,6 +205,9 @@
   </si>
   <si>
     <t>ward_id</t>
+  </si>
+  <si>
+    <t>POST/TRANSACTION/SYSTEM_ALERT</t>
   </si>
 </sst>
 </file>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -762,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -779,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>38</v>
@@ -793,7 +793,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>4</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>2</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="G23" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>46</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.35">
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>2</v>
@@ -932,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>32</v>
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q28" s="4" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>4</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
